--- a/data/0. old data/0. raw/2015/accumulation/accumulation_all.xlsx
+++ b/data/0. old data/0. raw/2015/accumulation/accumulation_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="23880" tabRatio="500"/>
+    <workbookView xWindow="7140" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="231">
   <si>
     <t>donations_grants</t>
   </si>
@@ -370,6 +370,348 @@
   </si>
   <si>
     <t>future</t>
+  </si>
+  <si>
+    <t>galderma</t>
+  </si>
+  <si>
+    <t>20.454,95</t>
+  </si>
+  <si>
+    <t>90.796,46</t>
+  </si>
+  <si>
+    <t>40.511,54</t>
+  </si>
+  <si>
+    <t>4.093,81</t>
+  </si>
+  <si>
+    <t>544.093,21</t>
+  </si>
+  <si>
+    <t>853.396,25</t>
+  </si>
+  <si>
+    <t>17.778,93</t>
+  </si>
+  <si>
+    <t>92.010,60</t>
+  </si>
+  <si>
+    <t>63.100,59</t>
+  </si>
+  <si>
+    <t>4.677,74</t>
+  </si>
+  <si>
+    <t>2.362.007,35</t>
+  </si>
+  <si>
+    <t>gilead</t>
+  </si>
+  <si>
+    <t>gruenenthal</t>
+  </si>
+  <si>
+    <t>176,513.07</t>
+  </si>
+  <si>
+    <t>glaxosmithkline</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>lundbeck</t>
+  </si>
+  <si>
+    <t>mepha</t>
+  </si>
+  <si>
+    <t>33072,71</t>
+  </si>
+  <si>
+    <t>96738,59</t>
+  </si>
+  <si>
+    <t>122576,78</t>
+  </si>
+  <si>
+    <t>10311,35</t>
+  </si>
+  <si>
+    <t>2 303 382 CHF</t>
+  </si>
+  <si>
+    <t>merck</t>
+  </si>
+  <si>
+    <t>37.213,87</t>
+  </si>
+  <si>
+    <t>10.424,22</t>
+  </si>
+  <si>
+    <t>48.466,58</t>
+  </si>
+  <si>
+    <t>301.203,73</t>
+  </si>
+  <si>
+    <t>27.160,82</t>
+  </si>
+  <si>
+    <t>194.148,15</t>
+  </si>
+  <si>
+    <t>590.643,93</t>
+  </si>
+  <si>
+    <t>10.302,55</t>
+  </si>
+  <si>
+    <t>39.737,28</t>
+  </si>
+  <si>
+    <t>197.042,52</t>
+  </si>
+  <si>
+    <t>msd</t>
+  </si>
+  <si>
+    <t>125'500</t>
+  </si>
+  <si>
+    <t>mundipharma</t>
+  </si>
+  <si>
+    <t>novartis</t>
+  </si>
+  <si>
+    <t>26'550</t>
+  </si>
+  <si>
+    <t>11'188</t>
+  </si>
+  <si>
+    <t>44'062</t>
+  </si>
+  <si>
+    <t>61'906</t>
+  </si>
+  <si>
+    <t>16'718</t>
+  </si>
+  <si>
+    <t>300'000</t>
+  </si>
+  <si>
+    <t>5'500</t>
+  </si>
+  <si>
+    <t>13'400</t>
+  </si>
+  <si>
+    <t>205'170</t>
+  </si>
+  <si>
+    <t>novo</t>
+  </si>
+  <si>
+    <t>otsuka</t>
+  </si>
+  <si>
+    <t>5'479</t>
+  </si>
+  <si>
+    <t>28'605</t>
+  </si>
+  <si>
+    <t>142'609</t>
+  </si>
+  <si>
+    <t>13'562</t>
+  </si>
+  <si>
+    <t>588'846</t>
+  </si>
+  <si>
+    <t>2'043'451</t>
+  </si>
+  <si>
+    <t>2'237</t>
+  </si>
+  <si>
+    <t>13'848</t>
+  </si>
+  <si>
+    <t>103'193</t>
+  </si>
+  <si>
+    <t>1'858'318</t>
+  </si>
+  <si>
+    <t>pfizer</t>
+  </si>
+  <si>
+    <t>pierre</t>
+  </si>
+  <si>
+    <t>22.554,60</t>
+  </si>
+  <si>
+    <t>30.212,80</t>
+  </si>
+  <si>
+    <t>27.150,16</t>
+  </si>
+  <si>
+    <t>5.283,00</t>
+  </si>
+  <si>
+    <t>207.272,25</t>
+  </si>
+  <si>
+    <t>130.196,28</t>
+  </si>
+  <si>
+    <t>4.818,00</t>
+  </si>
+  <si>
+    <t>1.836,00</t>
+  </si>
+  <si>
+    <t>1.000,00</t>
+  </si>
+  <si>
+    <t>sandoz</t>
+  </si>
+  <si>
+    <t>31.025,01</t>
+  </si>
+  <si>
+    <t>118.407,22</t>
+  </si>
+  <si>
+    <t>238.867,48</t>
+  </si>
+  <si>
+    <t>37.700,55</t>
+  </si>
+  <si>
+    <t>237.776,47</t>
+  </si>
+  <si>
+    <t>1.101.817,78</t>
+  </si>
+  <si>
+    <t>4.500,00</t>
+  </si>
+  <si>
+    <t>69.597,00</t>
+  </si>
+  <si>
+    <t>6.976,53</t>
+  </si>
+  <si>
+    <t>297.960,34</t>
+  </si>
+  <si>
+    <t>sanofi</t>
+  </si>
+  <si>
+    <t>9'218</t>
+  </si>
+  <si>
+    <t>20'478</t>
+  </si>
+  <si>
+    <t>83'020</t>
+  </si>
+  <si>
+    <t>12'956</t>
+  </si>
+  <si>
+    <t>5'000</t>
+  </si>
+  <si>
+    <t>534'668</t>
+  </si>
+  <si>
+    <t>1'117</t>
+  </si>
+  <si>
+    <t>515'656</t>
+  </si>
+  <si>
+    <t>3'537</t>
+  </si>
+  <si>
+    <t>185'571</t>
+  </si>
+  <si>
+    <t>servier</t>
+  </si>
+  <si>
+    <t>stallergenes</t>
+  </si>
+  <si>
+    <t>takeda</t>
+  </si>
+  <si>
+    <t>teva</t>
+  </si>
+  <si>
+    <t>ucb</t>
+  </si>
+  <si>
+    <t>19,569.83</t>
+  </si>
+  <si>
+    <t>54,852.63</t>
+  </si>
+  <si>
+    <t>129,896.83</t>
+  </si>
+  <si>
+    <t>3,466.00</t>
+  </si>
+  <si>
+    <t>147,500.00</t>
+  </si>
+  <si>
+    <t>392,440.60</t>
+  </si>
+  <si>
+    <t>1,588.53</t>
+  </si>
+  <si>
+    <t>2,500.00</t>
+  </si>
+  <si>
+    <t>205,079.99</t>
+  </si>
+  <si>
+    <t>vifor</t>
+  </si>
+  <si>
+    <t>zambon</t>
+  </si>
+  <si>
+    <t>137.781,20</t>
+  </si>
+  <si>
+    <t>528.152,14</t>
+  </si>
+  <si>
+    <t>386.331,20</t>
+  </si>
+  <si>
+    <t>23.870,90</t>
+  </si>
+  <si>
+    <t>2.144.044,90</t>
   </si>
 </sst>
 </file>
@@ -447,7 +789,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -561,8 +903,142 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -574,8 +1050,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="247">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -632,6 +1109,73 @@
     <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -688,6 +1232,73 @@
     <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1017,11 +1628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1417,19 +2028,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1">
-      <c r="A26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="5" t="s">
+    <row r="26" spans="1:9" s="8" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="5" customFormat="1">
-      <c r="A27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="5" t="s">
+    <row r="27" spans="1:9" s="8" customFormat="1">
+      <c r="A27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1444,45 +2055,60 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1">
-      <c r="A29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="5" t="s">
+    <row r="29" spans="1:9" s="8" customFormat="1">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:9" s="8" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="5" customFormat="1">
-      <c r="A31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="5" t="s">
+    <row r="31" spans="1:9" s="8" customFormat="1">
+      <c r="A31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1991,6 +2617,1069 @@
       </c>
       <c r="I64" s="8" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>1400</v>
+      </c>
+      <c r="E65">
+        <v>1600</v>
+      </c>
+      <c r="F65">
+        <v>63565</v>
+      </c>
+      <c r="G65">
+        <v>10323</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" t="s">
+        <v>127</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>128</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>959.2</v>
+      </c>
+      <c r="E71">
+        <v>4487.8</v>
+      </c>
+      <c r="F71">
+        <v>25500</v>
+      </c>
+      <c r="G71">
+        <v>358</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73">
+        <v>7260</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>484.79</v>
+      </c>
+      <c r="I74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>131</v>
+      </c>
+      <c r="I76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>564.15</v>
+      </c>
+      <c r="E77">
+        <v>2781</v>
+      </c>
+      <c r="F77">
+        <v>24810</v>
+      </c>
+      <c r="G77">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <v>1600</v>
+      </c>
+      <c r="C78">
+        <v>94557.35</v>
+      </c>
+      <c r="I78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>5000</v>
+      </c>
+      <c r="I79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="8" customFormat="1">
+      <c r="A80" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="8" customFormat="1">
+      <c r="A81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="8" customFormat="1">
+      <c r="A82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>4852</v>
+      </c>
+      <c r="E83">
+        <v>8524</v>
+      </c>
+      <c r="F83">
+        <v>16322</v>
+      </c>
+      <c r="G83">
+        <v>1376</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>245086</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" t="s">
+        <v>139</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>140</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" t="s">
+        <v>145</v>
+      </c>
+      <c r="G89" t="s">
+        <v>146</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" t="s">
+        <v>150</v>
+      </c>
+      <c r="F90" t="s">
+        <v>151</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91">
+        <v>5314998.28</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>153</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>43593.3</v>
+      </c>
+      <c r="E95">
+        <v>64540.01</v>
+      </c>
+      <c r="F95">
+        <v>209375.86</v>
+      </c>
+      <c r="G95">
+        <v>24602.639999999999</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96">
+        <v>74091.19</v>
+      </c>
+      <c r="C96">
+        <v>526308.59</v>
+      </c>
+      <c r="D96">
+        <v>9139.6</v>
+      </c>
+      <c r="E96">
+        <v>35683.79</v>
+      </c>
+      <c r="F96">
+        <v>156374</v>
+      </c>
+      <c r="G96">
+        <v>7658.1</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97">
+        <v>25767442.399999999</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" t="s">
+        <v>158</v>
+      </c>
+      <c r="F98" t="s">
+        <v>159</v>
+      </c>
+      <c r="G98" t="s">
+        <v>160</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" t="s">
+        <v>162</v>
+      </c>
+      <c r="F99" t="s">
+        <v>163</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>164</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>1271.46</v>
+      </c>
+      <c r="E101">
+        <v>2492.4499999999998</v>
+      </c>
+      <c r="F101">
+        <v>11425</v>
+      </c>
+      <c r="G101">
+        <v>110.5</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>167</v>
+      </c>
+      <c r="E104" t="s">
+        <v>168</v>
+      </c>
+      <c r="F104" t="s">
+        <v>169</v>
+      </c>
+      <c r="G104" t="s">
+        <v>170</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" t="s">
+        <v>173</v>
+      </c>
+      <c r="E105" t="s">
+        <v>174</v>
+      </c>
+      <c r="F105" t="s">
+        <v>175</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>176</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>7661.31</v>
+      </c>
+      <c r="E107">
+        <v>20262.13</v>
+      </c>
+      <c r="F107">
+        <v>2750</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>14500</v>
+      </c>
+      <c r="D108">
+        <v>2492</v>
+      </c>
+      <c r="E108">
+        <v>5445</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L109">
+        <v>680648.93</v>
+      </c>
+      <c r="M109">
+        <v>1074098.05</v>
+      </c>
+      <c r="N109">
+        <f>SUM(L109:M109)</f>
+        <v>1754746.98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" t="s">
+        <v>180</v>
+      </c>
+      <c r="F110" t="s">
+        <v>181</v>
+      </c>
+      <c r="G110" t="s">
+        <v>182</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" t="s">
+        <v>184</v>
+      </c>
+      <c r="D111" t="s">
+        <v>185</v>
+      </c>
+      <c r="E111" t="s">
+        <v>186</v>
+      </c>
+      <c r="F111" t="s">
+        <v>187</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112">
+        <v>670458.52</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>189</v>
+      </c>
+      <c r="E113" t="s">
+        <v>190</v>
+      </c>
+      <c r="F113" t="s">
+        <v>191</v>
+      </c>
+      <c r="G113" t="s">
+        <v>192</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" t="s">
+        <v>194</v>
+      </c>
+      <c r="E114" t="s">
+        <v>195</v>
+      </c>
+      <c r="F114" t="s">
+        <v>196</v>
+      </c>
+      <c r="G114" t="s">
+        <v>197</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>198</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>200</v>
+      </c>
+      <c r="E116" t="s">
+        <v>201</v>
+      </c>
+      <c r="F116" t="s">
+        <v>202</v>
+      </c>
+      <c r="G116" t="s">
+        <v>203</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" t="s">
+        <v>205</v>
+      </c>
+      <c r="D117" t="s">
+        <v>206</v>
+      </c>
+      <c r="F117" t="s">
+        <v>207</v>
+      </c>
+      <c r="G117" t="s">
+        <v>208</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121">
+        <v>4400</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>643.20000000000005</v>
+      </c>
+      <c r="E122">
+        <v>1246.33</v>
+      </c>
+      <c r="F122">
+        <v>21176.69</v>
+      </c>
+      <c r="G122">
+        <v>394.26</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123">
+        <v>56430.34</v>
+      </c>
+      <c r="C123">
+        <v>313726.27</v>
+      </c>
+      <c r="D123">
+        <v>2641.42</v>
+      </c>
+      <c r="E123">
+        <v>19595.990000000002</v>
+      </c>
+      <c r="F123">
+        <v>5256</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124">
+        <v>414092.07</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>45334</v>
+      </c>
+      <c r="E125">
+        <v>107760</v>
+      </c>
+      <c r="F125">
+        <v>14950</v>
+      </c>
+      <c r="G125">
+        <v>1294</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126">
+        <v>1852</v>
+      </c>
+      <c r="D126">
+        <v>29122</v>
+      </c>
+      <c r="F126">
+        <v>2100</v>
+      </c>
+      <c r="G126">
+        <v>134</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>1472.6</v>
+      </c>
+      <c r="E128">
+        <v>3388.86</v>
+      </c>
+      <c r="F128">
+        <v>27058.58</v>
+      </c>
+      <c r="G128">
+        <v>496.7</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130">
+        <v>1754746.98</v>
+      </c>
+      <c r="I130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>215</v>
+      </c>
+      <c r="E131" t="s">
+        <v>216</v>
+      </c>
+      <c r="F131" t="s">
+        <v>217</v>
+      </c>
+      <c r="G131" t="s">
+        <v>218</v>
+      </c>
+      <c r="I131" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>219</v>
+      </c>
+      <c r="C132" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132">
+        <v>567.84</v>
+      </c>
+      <c r="E132" t="s">
+        <v>221</v>
+      </c>
+      <c r="F132" t="s">
+        <v>222</v>
+      </c>
+      <c r="I132" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>223</v>
+      </c>
+      <c r="I133" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>1200</v>
+      </c>
+      <c r="I134" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135">
+        <v>15225</v>
+      </c>
+      <c r="D135">
+        <v>459</v>
+      </c>
+      <c r="E135">
+        <v>608</v>
+      </c>
+      <c r="I135" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
